--- a/documentation/projman/Week 8 - 11/Budget Summary.xlsx
+++ b/documentation/projman/Week 8 - 11/Budget Summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthrm\Documents\APC_2022_2023_T3_PROJMAN_MI201_MI203_G04_Nacor_Industries\documentation\projman\Week 8 - 11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bry\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFBCE957-3142-4261-B99A-E0F41078A702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222FDBA8-0DB2-420E-82EE-01E4D8E2C4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4351133B-0CD4-49BC-8021-01411515B6C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4351133B-0CD4-49BC-8021-01411515B6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Project Duration: 12 months</t>
   </si>
@@ -53,7 +53,10 @@
     <t>MONTHLY SALARY</t>
   </si>
   <si>
-    <t>RAMS Corner:                                                                                                                   Ticketing Service System</t>
+    <t>Documentation Manager</t>
+  </si>
+  <si>
+    <t>Team Member</t>
   </si>
   <si>
     <t>Product Owner</t>
@@ -128,7 +131,22 @@
     <t>Covered by the APC-ITRO</t>
   </si>
   <si>
-    <t>Documentation Member</t>
+    <t>Frontend Developer</t>
+  </si>
+  <si>
+    <t>Fullstack Developer</t>
+  </si>
+  <si>
+    <t>DAILY SALARY (8HRS)</t>
+  </si>
+  <si>
+    <t>UI/UX Designer</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>RAMS Corner: Ticketing Service System</t>
   </si>
 </sst>
 </file>
@@ -379,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -426,9 +444,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -487,6 +502,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -858,330 +903,480 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34686634-9A3C-4E38-97B3-EE240547C724}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="133" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="1" spans="1:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:5" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="36"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="38">
+        <f>C6/20</f>
+        <v>2624.55</v>
+      </c>
+      <c r="C6" s="4">
+        <v>52491</v>
+      </c>
+      <c r="D6" s="6">
+        <f>C6*12</f>
+        <v>629892</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <f>D6*E6</f>
+        <v>629892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
-        <v>52491</v>
-      </c>
-      <c r="C6" s="6">
-        <f>B6*12</f>
-        <v>629892</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B7" s="38">
+        <f t="shared" ref="B7:B13" si="0">C7/20</f>
+        <v>2891.5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>57830</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" ref="D7:D13" si="1">C7*12</f>
+        <v>693960</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
-        <f>C6*D6</f>
-        <v>629892</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="F7" s="4">
+        <f t="shared" ref="F7:F13" si="2">D7*E7</f>
+        <v>693960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
-        <v>57830</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" ref="C7:C9" si="0">B7*12</f>
-        <v>693960</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" ref="E7:E9" si="1">C7*D7</f>
-        <v>693960</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="B8" s="38">
+        <f t="shared" si="0"/>
+        <v>2471.0500000000002</v>
+      </c>
+      <c r="C8" s="4">
         <v>49421</v>
       </c>
-      <c r="C8" s="6">
-        <f t="shared" si="0"/>
-        <v>593052</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="6">
         <f t="shared" si="1"/>
         <v>593052</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>593052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="38">
+        <f t="shared" si="0"/>
+        <v>1612.75</v>
+      </c>
+      <c r="C9" s="4">
+        <v>32255</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="1"/>
+        <v>387060</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>774120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="38">
+        <f t="shared" si="0"/>
+        <v>1226.7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>24534</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="1"/>
+        <v>294408</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>883224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="38">
+        <f t="shared" si="0"/>
+        <v>2167.9499999999998</v>
+      </c>
+      <c r="C11" s="4">
+        <v>43359</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="1"/>
+        <v>520308</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>520308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="38">
+        <f t="shared" si="0"/>
+        <v>2337.6999999999998</v>
+      </c>
+      <c r="C12" s="4">
+        <v>46754</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="1"/>
+        <v>561048</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>561048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="38">
+        <f t="shared" si="0"/>
+        <v>2428.9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>48578</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="1"/>
+        <v>582936</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>1165872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7">
+        <f>SUM(F6:F10)</f>
+        <v>3574248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="12">
+        <v>329</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="30">
+        <f>B20*12</f>
+        <v>3948</v>
+      </c>
+      <c r="E20" s="33">
+        <v>1</v>
+      </c>
+      <c r="F20" s="30">
+        <f>D20*E20</f>
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="32"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7">
+        <f>SUM(F18:F23)</f>
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4">
-        <v>31546.55</v>
-      </c>
-      <c r="C9" s="6">
-        <f t="shared" si="0"/>
-        <v>378558.6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="1"/>
-        <v>1135675.7999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7">
-        <f>SUM(E6:E9)</f>
-        <v>3052579.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="31">
-        <v>329</v>
-      </c>
-      <c r="C15" s="31">
-        <f>B15*12</f>
-        <v>3948</v>
-      </c>
-      <c r="D15" s="34">
-        <v>1</v>
-      </c>
-      <c r="E15" s="31">
-        <f>C15*D15</f>
-        <v>3948</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="33"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7">
-        <f>SUM(E14:E18)</f>
-        <v>3948</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="12" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="B22:E24"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A10:D10"/>
+  <mergeCells count="17">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:F29"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="B20:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/documentation/projman/Week 8 - 11/Budget Summary.xlsx
+++ b/documentation/projman/Week 8 - 11/Budget Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bry\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bry\Documents\Nacor Industries\APC_2022_2023_T3_PROJMAN_MI201_MI203_G04_Nacor_Industries\documentation\projman\Week 8 - 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222FDBA8-0DB2-420E-82EE-01E4D8E2C4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9C3C18-7D27-4D1A-8A90-25E269F3B2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4351133B-0CD4-49BC-8021-01411515B6C5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Project Duration: 12 months</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>RAMS Corner: Ticketing Service System</t>
+  </si>
+  <si>
+    <t>https://ph.indeed.com</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$₱-464]#,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +195,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -394,10 +408,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,6 +438,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,30 +495,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -474,9 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -504,38 +540,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -903,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34686634-9A3C-4E38-97B3-EE240547C724}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="133" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="133" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,42 +932,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -980,7 +993,7 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="9">
         <f>C6/20</f>
         <v>2624.55</v>
       </c>
@@ -1003,7 +1016,7 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="9">
         <f t="shared" ref="B7:B13" si="0">C7/20</f>
         <v>2891.5</v>
       </c>
@@ -1026,7 +1039,7 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="9">
         <f t="shared" si="0"/>
         <v>2471.0500000000002</v>
       </c>
@@ -1049,7 +1062,7 @@
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="9">
         <f t="shared" si="0"/>
         <v>1612.75</v>
       </c>
@@ -1072,7 +1085,7 @@
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="9">
         <f t="shared" si="0"/>
         <v>1226.7</v>
       </c>
@@ -1095,7 +1108,7 @@
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="9">
         <f t="shared" si="0"/>
         <v>2167.9499999999998</v>
       </c>
@@ -1118,7 +1131,7 @@
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="9">
         <f t="shared" si="0"/>
         <v>2337.6999999999998</v>
       </c>
@@ -1141,7 +1154,7 @@
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="9">
         <f t="shared" si="0"/>
         <v>2428.9</v>
       </c>
@@ -1161,77 +1174,77 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="7">
         <f>SUM(F6:F10)</f>
         <v>3574248</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1239,18 +1252,18 @@
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="16">
         <v>329</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="30">
+      <c r="C20" s="18"/>
+      <c r="D20" s="37">
         <f>B20*12</f>
         <v>3948</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="40">
         <v>1</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="37">
         <f>D20*E20</f>
         <v>3948</v>
       </c>
@@ -1259,63 +1272,63 @@
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="31"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="31"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="32"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="7">
         <f>SUM(F18:F23)</f>
         <v>3948</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="44"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="5" t="s">
         <v>26</v>
       </c>
@@ -1330,56 +1343,75 @@
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:F29"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:F25"/>
+  <mergeCells count="19">
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="B20:C23"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="B20:C23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:F29"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:F25"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D32" r:id="rId1" xr:uid="{25E90150-AEBD-4F83-B2C6-2CDEAE7600A1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/documentation/projman/Week 8 - 11/Budget Summary.xlsx
+++ b/documentation/projman/Week 8 - 11/Budget Summary.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bry\Documents\Nacor Industries\APC_2022_2023_T3_PROJMAN_MI201_MI203_G04_Nacor_Industries\documentation\projman\Week 8 - 11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rthrm\Documents\APC_2022_2023_T3_PROJMAN_MI201_MI203_G04_Nacor_Industries\documentation\projman\Week 8 - 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9C3C18-7D27-4D1A-8A90-25E269F3B2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5618246-A809-4911-8216-4CF29EC0AA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4351133B-0CD4-49BC-8021-01411515B6C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4351133B-0CD4-49BC-8021-01411515B6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -447,104 +448,104 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -918,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34686634-9A3C-4E38-97B3-EE240547C724}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="133" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:F31"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,14 +961,14 @@
       <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1174,70 +1175,70 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="7">
         <f>SUM(F6:F10)</f>
         <v>3574248</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="13"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="11" t="s">
         <v>26</v>
       </c>
@@ -1252,18 +1253,18 @@
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="22">
         <v>329</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="37">
+      <c r="C20" s="23"/>
+      <c r="D20" s="16">
         <f>B20*12</f>
         <v>3948</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="19">
         <v>1</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="16">
         <f>D20*E20</f>
         <v>3948</v>
       </c>
@@ -1272,63 +1273,63 @@
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="38"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="38"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="39"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="7">
         <f>SUM(F18:F23)</f>
         <v>3948</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="5" t="s">
         <v>26</v>
       </c>
@@ -1343,50 +1344,56 @@
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="43" t="s">
+      <c r="D31" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A14:E14"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="A18:F18"/>
@@ -1395,12 +1402,6 @@
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="B20:C23"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A14:E14"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:F29"/>
@@ -1414,4 +1415,16 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E1EE9A-422B-403C-BAE8-2D91894E51C9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>